--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/07,07,25 Ост СЫР филиалы/заказ СЫРЫ от 09,07,25 на 14,07,25.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/07,07,25 Ост СЫР филиалы/заказ СЫРЫ от 09,07,25 на 14,07,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\07,07,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\07,25\07,07,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA365833-8C2D-4F8B-B051-9FE791EE685F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BB25BB-500E-4548-9180-4597733E2473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,8 +818,8 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1436,14 +1436,14 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f>D24/C24</f>
+        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
         <v>17</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f>G24*D24</f>
+        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
         <v>10.200000000000001</v>
       </c>
       <c r="I24" s="11"/>
@@ -1463,14 +1463,14 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f>G25*D25</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="I25" s="11"/>
@@ -1490,14 +1490,14 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="11">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
-        <f>G26*D26</f>
+        <f t="shared" si="1"/>
         <v>11.200000000000001</v>
       </c>
       <c r="I26" s="11"/>
@@ -1517,14 +1517,14 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G27" s="2">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
-        <f>G27*D27</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="I27" s="11"/>
@@ -1542,14 +1542,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -1567,14 +1567,14 @@
       <c r="D29" s="14"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -1594,14 +1594,14 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G30" s="2">
         <v>0.18</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>75.599999999999994</v>
       </c>
       <c r="I30" s="11"/>
@@ -1702,14 +1702,14 @@
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" ref="F34:F39" si="2">D34/C34</f>
         <v>2</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" ref="H34:H47" si="3">G34*D34</f>
         <v>6.4</v>
       </c>
       <c r="I34" s="11"/>
@@ -1727,14 +1727,14 @@
       <c r="D35" s="14"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.4</v>
       </c>
       <c r="H35" s="11">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>8.64</v>
       </c>
       <c r="I36" s="11"/>
@@ -1779,14 +1779,14 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f>D37/C37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f>G37*D37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" si="3"/>
         <v>20.16</v>
       </c>
       <c r="I38" s="11"/>
@@ -1831,14 +1831,14 @@
       <c r="D39" s="14"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -1856,14 +1856,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f t="shared" ref="F40:F45" si="0">D40/C40</f>
+        <f t="shared" ref="F40:F45" si="4">D40/C40</f>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -1881,14 +1881,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -1906,14 +1906,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -1931,14 +1931,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -1956,14 +1956,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
       <c r="H44" s="11">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
@@ -1981,14 +1981,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0.125</v>
       </c>
       <c r="H45" s="11">
-        <f>G45*D45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
@@ -2013,7 +2013,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="11">
-        <f>G46*D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -2040,7 +2040,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="11">
-        <f>G47*D47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
@@ -2086,8 +2086,8 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2702,14 +2702,14 @@
       <c r="D24" s="14"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f>D24/C24</f>
+        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f>G24*D24</f>
+        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -2729,14 +2729,14 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f>G25*D25</f>
+        <f t="shared" si="1"/>
         <v>10.200000000000001</v>
       </c>
       <c r="I25" s="11"/>
@@ -2754,14 +2754,14 @@
       <c r="D26" s="14"/>
       <c r="E26" s="16"/>
       <c r="F26" s="11">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
-        <f>G26*D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="11"/>
@@ -2779,14 +2779,14 @@
       <c r="D27" s="14"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
-        <f>G27*D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -2804,14 +2804,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -2831,14 +2831,14 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>6.7200000000000006</v>
       </c>
       <c r="I29" s="11"/>
@@ -2856,14 +2856,14 @@
       <c r="D30" s="14"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.18</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
@@ -2962,14 +2962,14 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" ref="F34:F45" si="2">D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" ref="H34:H47" si="3">G34*D34</f>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -2987,14 +2987,14 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.4</v>
       </c>
       <c r="H35" s="11">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -3014,14 +3014,14 @@
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>51.839999999999996</v>
       </c>
       <c r="I36" s="11"/>
@@ -3041,14 +3041,14 @@
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f>D37/C37</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f>G37*D37</f>
+        <f t="shared" si="3"/>
         <v>23.04</v>
       </c>
       <c r="I37" s="11"/>
@@ -3068,14 +3068,14 @@
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" si="3"/>
         <v>23.04</v>
       </c>
       <c r="I38" s="11"/>
@@ -3095,14 +3095,14 @@
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G39" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="3"/>
         <v>11.200000000000001</v>
       </c>
       <c r="I39" s="11"/>
@@ -3120,14 +3120,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -3145,14 +3145,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -3170,14 +3170,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -3195,14 +3195,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -3220,14 +3220,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
       <c r="H44" s="11">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
@@ -3245,14 +3245,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0.125</v>
       </c>
       <c r="H45" s="11">
-        <f>G45*D45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
@@ -3277,7 +3277,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="11">
-        <f>G46*D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -3304,7 +3304,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="11">
-        <f>G47*D47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
@@ -3344,8 +3344,8 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3962,14 +3962,14 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f>D24/C24</f>
+        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
         <v>13</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f>G24*D24</f>
+        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
         <v>7.8000000000000007</v>
       </c>
       <c r="I24" s="11"/>
@@ -3987,14 +3987,14 @@
       <c r="D25" s="14"/>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f>G25*D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
@@ -4012,14 +4012,14 @@
       <c r="D26" s="14"/>
       <c r="E26" s="16"/>
       <c r="F26" s="11">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
-        <f>G26*D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="11"/>
@@ -4037,14 +4037,14 @@
       <c r="D27" s="14"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
-        <f>G27*D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -4062,14 +4062,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -4089,14 +4089,14 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>11.200000000000001</v>
       </c>
       <c r="I29" s="11"/>
@@ -4114,14 +4114,14 @@
       <c r="D30" s="14"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.18</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
@@ -4220,14 +4220,14 @@
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" ref="F34:F45" si="2">D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" ref="H34:H47" si="3">G34*D34</f>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -4245,14 +4245,14 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.4</v>
       </c>
       <c r="H35" s="11">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -4270,14 +4270,14 @@
       <c r="D36" s="14"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -4295,14 +4295,14 @@
       <c r="D37" s="14"/>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f>D37/C37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f>G37*D37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
@@ -4322,14 +4322,14 @@
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" si="3"/>
         <v>11.52</v>
       </c>
       <c r="I38" s="11"/>
@@ -4349,14 +4349,14 @@
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G39" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="3"/>
         <v>6.7200000000000006</v>
       </c>
       <c r="I39" s="11"/>
@@ -4374,14 +4374,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -4399,14 +4399,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -4424,14 +4424,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -4449,14 +4449,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -4474,14 +4474,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
       <c r="H44" s="11">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
@@ -4499,14 +4499,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0.125</v>
       </c>
       <c r="H45" s="11">
-        <f>G45*D45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
@@ -4531,7 +4531,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="11">
-        <f>G46*D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -4558,7 +4558,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="11">
-        <f>G47*D47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
@@ -4598,8 +4598,8 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5212,14 +5212,14 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f>D24/C24</f>
+        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f>G24*D24</f>
+        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -5237,14 +5237,14 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f>G25*D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
@@ -5262,14 +5262,14 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="11">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
-        <f>G26*D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="11"/>
@@ -5287,14 +5287,14 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
-        <f>G27*D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -5312,14 +5312,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -5337,14 +5337,14 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -5362,14 +5362,14 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.18</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
@@ -5468,14 +5468,14 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" ref="F34:F45" si="2">D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" ref="H34:H47" si="3">G34*D34</f>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -5493,14 +5493,14 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.4</v>
       </c>
       <c r="H35" s="11">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -5518,14 +5518,14 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -5543,14 +5543,14 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f>D37/C37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f>G37*D37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
@@ -5570,14 +5570,14 @@
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" si="3"/>
         <v>5.76</v>
       </c>
       <c r="I38" s="11"/>
@@ -5595,14 +5595,14 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -5620,14 +5620,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -5645,14 +5645,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -5670,14 +5670,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -5695,14 +5695,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -5720,14 +5720,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
       <c r="H44" s="11">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
@@ -5745,14 +5745,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0.125</v>
       </c>
       <c r="H45" s="11">
-        <f>G45*D45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
@@ -5777,7 +5777,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="11">
-        <f>G46*D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -5804,7 +5804,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="11">
-        <f>G47*D47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
